--- a/Java-Spring/Java-Spring.xlsx
+++ b/Java-Spring/Java-Spring.xlsx
@@ -16141,7 +16141,7 @@
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
